--- a/Doc/引脚分配.xlsx
+++ b/Doc/引脚分配.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F24A0AA-CE42-4024-83BA-F15A0F7BE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13170" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>UA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,13 +174,89 @@
   </si>
   <si>
     <t>电流放大器C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>SPI1_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRV8313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INA99A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJA1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁编码器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-5降压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3.3降压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,20 +574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -520,8 +599,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -531,8 +616,14 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -542,8 +633,14 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -553,16 +650,36 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -570,7 +687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -578,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -586,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -594,7 +711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -602,7 +719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -610,7 +727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -665,6 +782,38 @@
       </c>
       <c r="C23" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
